--- a/02_MasterWifoMannheim/03_Courses/Course76.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course76.xlsx
@@ -1,37 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD3D05905DB9B3611597CF0766FE1F9F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F628B6F5-18BA-4490-AD53-AED4AAA7CB07}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-24270" yWindow="915" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>FIN 603 Empirical Finance</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>The course provides students with an understanding of important empirical methods and their application in finance. microstructure. Students will learn to perform empirical analysis using the software package Stata. The course enables students to plan and carry out empirical research in finance on their own and prepares for an empirical seminar or master thesis in the finance area. course consists of the practical application of the methods learned in the lecture to various case studies.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>The students will have a sound understanding of empirical methods and their underlying assumptions. The students will be able to choose appropriate methods for given empirical problems and apply them in an efficient way. The case studies enable the students to develop basic programming skills in Stata.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on the registration:Website of the chair, “Student Portal” (more information about the registration process is available here)</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Vorlesung 2 6 Übung 1 11</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written exam (45%; 60 min.), Case Studies (45%), Class Participation (10%)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Erik Theissen</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+  </si>
+  <si>
+    <t>and Insurance (FIN), FIN 604</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +145,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,205 +469,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FIN 603 Empirical Finance</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The course provides students with an understanding of important empirical methods and their application in finance. microstructure. Students will learn to perform empirical analysis using the software package Stata. The course enables students to plan and carry out empirical research in finance on their own and prepares for an empirical seminar or master thesis in the finance area. course consists of the practical application of the methods learned in the lecture to various case studies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The students will have a sound understanding of empirical methods and their underlying assumptions. The students will be able to choose appropriate methods for given empirical problems and apply them in an efficient way. The case studies enable the students to develop basic programming skills in Stata.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FIN 5XX, FIN 604</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Further Information on the registration:Website of the chair, “Student Portal” (more information about the registration process is available here)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Vorlesung 2 6 Übung 1 11</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Written exam (45%; 60 min.), Case Studies (45%), Class Participation (10%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Erik Theissen</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
